--- a/medicine/Sexualité et sexologie/Hypersexualité/Hypersexualité.xlsx
+++ b/medicine/Sexualité et sexologie/Hypersexualité/Hypersexualité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypersexualit%C3%A9</t>
+          <t>Hypersexualité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypersexualité, aussi appelée « sexualité compulsive », est un comportement sexuel humain qui se traduit par une recherche continue et persistante du plaisir sexuel. Pour les hommes, l'hypersexualité est aussi appelée satyriasis ou satyrisme (de « satyres », créatures de la mythologie grecque). Pour les femmes, l'hypersexualité est parfois appelée nymphomanie (composé de « nymphe », divinité féminine de la mythologie gréco-romaine souvent représentée sous les traits d'une jeune fille nue, et du mot grec μανία (manía) signifiant « folie »).
 Le concept d'hypersexualité remplace au début du XXIe siècle les anciens concepts de nymphomanie et de satyriasisme. À ces anciens concepts était associé un trouble psychologique caractérisé par une obsession vis-à-vis du sexe entraînant une libido considérée comme trop active.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypersexualit%C3%A9</t>
+          <t>Hypersexualité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,13 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Causes psychologiques
-Il existe différentes théories sur la cause de l'hypersexualité. L'une des principales causes psychologiques pourrait être un manque d'amour, une forte carence affective[1], la dépression, ou encore la phase maniaque des troubles bipolaires. Une cause neurologique est rare et n'est à rechercher que si le sujet souffre d'hypersexualité brusquement alors qu'il était paisible jusque-là[2]. C'est aussi une maladie psychologique.
-Causes neurologiques
-Des dommages au système limbique (amygdale, cortex frontal) peuvent la provoquer. Ces atteintes peuvent donner lieu à des préoccupations sexuelles excessives, une désinhibition verbale, des comportements de séduction exagérés, de l'exhibitionnisme, du voyeurisme ou encore des compulsions sexuelles.
-Le trouble bipolaire peut entraîner des comportements hypersexuels[3].
-Causes médicamenteuses
-Certains médicaments, dont des anti-parkinsoniens (les agonistes dopaminergiques) pourraient favoriser des comportements addictifs dont l'hypersexualité[4].
+          <t>Causes psychologiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe différentes théories sur la cause de l'hypersexualité. L'une des principales causes psychologiques pourrait être un manque d'amour, une forte carence affective, la dépression, ou encore la phase maniaque des troubles bipolaires. Une cause neurologique est rare et n'est à rechercher que si le sujet souffre d'hypersexualité brusquement alors qu'il était paisible jusque-là. C'est aussi une maladie psychologique.
 </t>
         </is>
       </c>
@@ -533,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypersexualit%C3%A9</t>
+          <t>Hypersexualité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +560,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Causes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans le DSM-IV, le trouble est référencé sous le nom de "trouble sexuel non spécifié", abandonnant l'ancienne dénomination de satyriasis et nymphomanie. Selon M. V. Chopin, il s'agit de reconnaître et nommer le comportement sexuel compulsif observé en addictologie. La modification de la terminologie contribuerait à la déstigmatisation du comportement [5]. Un temps s'est posée la question d'ajouter au DSM-V le diagnostic de "trouble hypersexuel", avant que la proposition soit rejetée en 2012[6].
-En juin 2018, avec l'ICD-11, l'OMS reconnaît "les comportements sexuels compulsifs"[7], sous l'entité "6C72 Compulsive sexual behaviour disorder"[8]. Il y est défini comme un schéma récurrent d'échec à contrôler des impulsions sexuelles répétitives, intenses ou des besoins résultant en des comportements sexuels répétitifs. Les symptômes peuvent inclure des activités sexuelles répétitives devenant le centre de l'attention dans la vie de la personne au point de négliger sa santé, sa personne ou ses autres intérêts, activités ou responsabilités ; des efforts nombreux et sans succès pour réduire significativement le comportement sexuel répétitif ; et la poursuite des comportements sexuels répétitifs malgré les conséquences indésirables ou le peu voire l'absence de satisfaction retirée. Le schéma d'échec à contrôler d'intenses impulsions ou besoins sexuels et résultant en un comportement sexuel répétitif se manifeste sur une période étendue (par exemple, 6 mois ou plus) et cause une détresse marquée ou un handicap significatif dans les domaines personnel, familial, social, éducationnel, dans les loisirs ou dans d'autres domaines importants. La détresse qui est entièrement liée au jugement moral et à la désapprobation des impulsions, besoins et comportements sexuels n'est pas suffisante pour satisfaire ce critère[8].
+          <t>Causes neurologiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des dommages au système limbique (amygdale, cortex frontal) peuvent la provoquer. Ces atteintes peuvent donner lieu à des préoccupations sexuelles excessives, une désinhibition verbale, des comportements de séduction exagérés, de l'exhibitionnisme, du voyeurisme ou encore des compulsions sexuelles.
+Le trouble bipolaire peut entraîner des comportements hypersexuels.
 </t>
         </is>
       </c>
@@ -565,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypersexualit%C3%A9</t>
+          <t>Hypersexualité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +598,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Prise en charge médicale et psychologique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Causes médicamenteuses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains médicaments, dont des anti-parkinsoniens (les agonistes dopaminergiques) pourraient favoriser des comportements addictifs dont l'hypersexualité.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -591,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypersexualit%C3%A9</t>
+          <t>Hypersexualité</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +635,74 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le DSM-IV, le trouble est référencé sous le nom de "trouble sexuel non spécifié", abandonnant l'ancienne dénomination de satyriasis et nymphomanie. Selon M. V. Chopin, il s'agit de reconnaître et nommer le comportement sexuel compulsif observé en addictologie. La modification de la terminologie contribuerait à la déstigmatisation du comportement . Un temps s'est posée la question d'ajouter au DSM-V le diagnostic de "trouble hypersexuel", avant que la proposition soit rejetée en 2012.
+En juin 2018, avec l'ICD-11, l'OMS reconnaît "les comportements sexuels compulsifs", sous l'entité "6C72 Compulsive sexual behaviour disorder". Il y est défini comme un schéma récurrent d'échec à contrôler des impulsions sexuelles répétitives, intenses ou des besoins résultant en des comportements sexuels répétitifs. Les symptômes peuvent inclure des activités sexuelles répétitives devenant le centre de l'attention dans la vie de la personne au point de négliger sa santé, sa personne ou ses autres intérêts, activités ou responsabilités ; des efforts nombreux et sans succès pour réduire significativement le comportement sexuel répétitif ; et la poursuite des comportements sexuels répétitifs malgré les conséquences indésirables ou le peu voire l'absence de satisfaction retirée. Le schéma d'échec à contrôler d'intenses impulsions ou besoins sexuels et résultant en un comportement sexuel répétitif se manifeste sur une période étendue (par exemple, 6 mois ou plus) et cause une détresse marquée ou un handicap significatif dans les domaines personnel, familial, social, éducationnel, dans les loisirs ou dans d'autres domaines importants. La détresse qui est entièrement liée au jugement moral et à la désapprobation des impulsions, besoins et comportements sexuels n'est pas suffisante pour satisfaire ce critère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypersexualité</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypersexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prise en charge médicale et psychologique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hypersexualité</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypersexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1973 : Le Journal intime d'une nymphomane de Jesús Franco
 1990 : Les vies de Loulou (Las edades de Lulú) de Bigas Luna
